--- a/Data/g17.1.xlsx
+++ b/Data/g17.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,16 +708,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.40000000000001</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21.90000000000001</v>
+        <v>22.40000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20.7</v>
+        <v>21.90000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19.90000000000001</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19.40000000000001</v>
+        <v>19.90000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18.7</v>
+        <v>19.40000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.40000000000001</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16.90000000000001</v>
+        <v>17.40000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16.59999999999999</v>
+        <v>16.90000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16.2</v>
+        <v>16.59999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13.9</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11.7</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="35">
@@ -953,41 +953,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.40000000000001</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="38">
@@ -998,11 +998,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>18.2</v>
+        <v>19.40000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="40">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>16.90000000000001</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="41">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="42">
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>16.90000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="44">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.09999999999999</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="46">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15.59999999999999</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>13.9</v>
+        <v>17.09999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13.7</v>
+        <v>15.59999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="50">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="51">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11.7</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="52">
@@ -1208,11 +1208,56 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C54" t="n">
         <v>11.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
